--- a/dataset/processed/Ignored/Ignore Samity Data.xlsx
+++ b/dataset/processed/Ignored/Ignore Samity Data.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Branch Code</t>
+          <t>Branch Information</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Samity Code</t>
+          <t>Center Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -461,22 +461,22 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Samity Day</t>
+          <t>Center Day</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Samity Type</t>
+          <t>Center Type</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Samity Opening Date</t>
+          <t>Center Opening Date</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Maximum Member of Samity</t>
+          <t>Maximum Member of Center</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
